--- a/Tables/2_2_3_chi_square_tests.xlsx
+++ b/Tables/2_2_3_chi_square_tests.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L57"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,11 +481,6 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>FDR corrected p-value</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
           <t>result</t>
         </is>
       </c>
@@ -509,26 +504,23 @@
         <v>51</v>
       </c>
       <c r="F2" t="n">
-        <v>51.51515151515152</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>48</v>
       </c>
       <c r="H2" t="n">
-        <v>48.48484848484848</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>3.55954204905259</v>
+        <v>4.371473494780586</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5049</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.7470545454545454</v>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Non-significant</t>
+        <v>0.0436</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Significant</t>
         </is>
       </c>
     </row>
@@ -551,22 +543,17 @@
         <v>35</v>
       </c>
       <c r="F3" t="n">
-        <v>35.35</v>
+        <v>68.63</v>
       </c>
       <c r="G3" t="n">
         <v>23</v>
       </c>
       <c r="H3" t="n">
-        <v>23.23</v>
+        <v>47.92</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Non-significant</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -587,22 +574,17 @@
         <v>16</v>
       </c>
       <c r="F4" t="n">
-        <v>16.16</v>
+        <v>31.37</v>
       </c>
       <c r="G4" t="n">
         <v>25</v>
       </c>
       <c r="H4" t="n">
-        <v>25.25</v>
+        <v>52.08</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Non-significant</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -623,24 +605,21 @@
         <v>51</v>
       </c>
       <c r="F5" t="n">
-        <v>51.51515151515152</v>
+        <v>100</v>
       </c>
       <c r="G5" t="n">
         <v>48</v>
       </c>
       <c r="H5" t="n">
-        <v>48.48484848484848</v>
+        <v>100</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2558564675870349</v>
+        <v>0.4997539015606244</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5669</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.7470545454545454</v>
-      </c>
-      <c r="L5" t="inlineStr">
+        <v>0.5445</v>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>Non-significant</t>
         </is>
@@ -665,22 +644,17 @@
         <v>24</v>
       </c>
       <c r="F6" t="n">
-        <v>24.24</v>
+        <v>47.06</v>
       </c>
       <c r="G6" t="n">
         <v>26</v>
       </c>
       <c r="H6" t="n">
-        <v>26.26</v>
+        <v>54.17</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>Non-significant</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -701,22 +675,17 @@
         <v>27</v>
       </c>
       <c r="F7" t="n">
-        <v>27.27</v>
+        <v>52.94</v>
       </c>
       <c r="G7" t="n">
         <v>22</v>
       </c>
       <c r="H7" t="n">
-        <v>22.22</v>
+        <v>45.83</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Non-significant</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -737,24 +706,21 @@
         <v>3</v>
       </c>
       <c r="F8" t="n">
-        <v>5.882352941176471</v>
+        <v>100</v>
       </c>
       <c r="G8" t="n">
         <v>48</v>
       </c>
       <c r="H8" t="n">
-        <v>94.11764705882354</v>
+        <v>100</v>
       </c>
       <c r="I8" t="n">
         <v>2.631498579545454</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6848</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.7470545454545454</v>
-      </c>
-      <c r="L8" t="inlineStr">
+        <v>0.7348</v>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>Non-significant</t>
         </is>
@@ -779,22 +745,17 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>1.96</v>
+        <v>33.33</v>
       </c>
       <c r="G9" t="n">
         <v>31</v>
       </c>
       <c r="H9" t="n">
-        <v>60.78</v>
+        <v>64.58</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>Non-significant</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -815,22 +776,17 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>1.96</v>
+        <v>33.33</v>
       </c>
       <c r="G10" t="n">
         <v>10</v>
       </c>
       <c r="H10" t="n">
-        <v>19.61</v>
+        <v>20.83</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>Non-significant</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -851,22 +807,17 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>1.96</v>
+        <v>33.33</v>
       </c>
       <c r="G11" t="n">
         <v>4</v>
       </c>
       <c r="H11" t="n">
-        <v>7.84</v>
+        <v>8.33</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>Non-significant</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -893,16 +844,11 @@
         <v>2</v>
       </c>
       <c r="H12" t="n">
-        <v>3.92</v>
+        <v>4.17</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>Non-significant</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -929,16 +875,11 @@
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>1.96</v>
+        <v>2.08</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>Non-significant</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -959,24 +900,21 @@
         <v>3</v>
       </c>
       <c r="F14" t="n">
-        <v>5.882352941176471</v>
+        <v>100</v>
       </c>
       <c r="G14" t="n">
         <v>48</v>
       </c>
       <c r="H14" t="n">
-        <v>94.11764705882354</v>
+        <v>100</v>
       </c>
       <c r="I14" t="n">
         <v>0.3963293650793651</v>
       </c>
       <c r="J14" t="n">
-        <v>0.8176</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.8176</v>
-      </c>
-      <c r="L14" t="inlineStr">
+        <v>0.8243</v>
+      </c>
+      <c r="K14" t="inlineStr">
         <is>
           <t>Non-significant</t>
         </is>
@@ -1001,22 +939,17 @@
         <v>2</v>
       </c>
       <c r="F15" t="n">
-        <v>3.92</v>
+        <v>66.67</v>
       </c>
       <c r="G15" t="n">
         <v>26</v>
       </c>
       <c r="H15" t="n">
-        <v>50.98</v>
+        <v>54.17</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>Non-significant</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1037,22 +970,17 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>1.96</v>
+        <v>33.33</v>
       </c>
       <c r="G16" t="n">
         <v>17</v>
       </c>
       <c r="H16" t="n">
-        <v>33.33</v>
+        <v>35.42</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>Non-significant</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1079,16 +1007,11 @@
         <v>5</v>
       </c>
       <c r="H17" t="n">
-        <v>9.800000000000001</v>
+        <v>10.42</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>Non-significant</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1109,26 +1032,23 @@
         <v>51</v>
       </c>
       <c r="F18" t="n">
-        <v>51.51515151515152</v>
+        <v>100</v>
       </c>
       <c r="G18" t="n">
         <v>48</v>
       </c>
       <c r="H18" t="n">
-        <v>48.48484848484848</v>
+        <v>100</v>
       </c>
       <c r="I18" t="n">
         <v>74.35668103448276</v>
       </c>
       <c r="J18" t="n">
-        <v>0.5134</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.7470545454545454</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>Non-significant</t>
+        <v>0</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Significant</t>
         </is>
       </c>
     </row>
@@ -1151,22 +1071,17 @@
         <v>51</v>
       </c>
       <c r="F19" t="n">
-        <v>51.52</v>
+        <v>100</v>
       </c>
       <c r="G19" t="n">
         <v>7</v>
       </c>
       <c r="H19" t="n">
-        <v>7.07</v>
+        <v>14.58</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>Non-significant</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1193,16 +1108,11 @@
         <v>39</v>
       </c>
       <c r="H20" t="n">
-        <v>39.39</v>
+        <v>81.25</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>Non-significant</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1229,16 +1139,11 @@
         <v>2</v>
       </c>
       <c r="H21" t="n">
-        <v>2.02</v>
+        <v>4.17</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>Non-significant</t>
-        </is>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1259,26 +1164,23 @@
         <v>3</v>
       </c>
       <c r="F22" t="n">
-        <v>5.882352941176471</v>
+        <v>100</v>
       </c>
       <c r="G22" t="n">
         <v>48</v>
       </c>
       <c r="H22" t="n">
-        <v>94.11764705882354</v>
+        <v>100</v>
       </c>
       <c r="I22" t="n">
         <v>33.30612244897959</v>
       </c>
       <c r="J22" t="n">
-        <v>0.4618</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.7470545454545454</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>Non-significant</t>
+        <v>0</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Significant</t>
         </is>
       </c>
     </row>
@@ -1301,22 +1203,17 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>1.96</v>
+        <v>33.33</v>
       </c>
       <c r="G23" t="n">
         <v>48</v>
       </c>
       <c r="H23" t="n">
-        <v>94.12</v>
+        <v>100</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>Non-significant</t>
-        </is>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1337,7 +1234,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>1.96</v>
+        <v>33.33</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1348,11 +1245,6 @@
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>Non-significant</t>
-        </is>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1360,7 +1252,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve">     Tympanoplasty</t>
+          <t xml:space="preserve">     Miring + prosthesis</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -1373,7 +1265,7 @@
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>1.96</v>
+        <v>33.33</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1384,11 +1276,6 @@
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>Non-significant</t>
-        </is>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1396,31 +1283,34 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t xml:space="preserve">     Miring + prosthesis</t>
+          <t>Post_surgical_Vertigo</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
+        <v>100</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1.034902597402598</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.3343</v>
+      </c>
+      <c r="K26" t="inlineStr">
         <is>
           <t>Non-significant</t>
         </is>
@@ -1432,41 +1322,30 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Post_surgical_Vertigo</t>
+          <t xml:space="preserve">     No</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D27" t="n">
-        <v>100</v>
+        <v>86.27</v>
       </c>
       <c r="E27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27" t="n">
-        <v>5.882352941176471</v>
+        <v>66.67</v>
       </c>
       <c r="G27" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H27" t="n">
-        <v>94.11764705882354</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0.02328530844155844</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.506</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.7470545454545454</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>Non-significant</t>
-        </is>
-      </c>
+        <v>87.5</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1474,35 +1353,30 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t xml:space="preserve">     No</t>
+          <t xml:space="preserve">     Yes</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="D28" t="n">
-        <v>86.27</v>
+        <v>13.73</v>
       </c>
       <c r="E28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>3.92</v>
+        <v>33.33</v>
       </c>
       <c r="G28" t="n">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="H28" t="n">
-        <v>82.34999999999999</v>
+        <v>12.5</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>Non-significant</t>
-        </is>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1510,33 +1384,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve">     Yes</t>
+          <t>One_Week_Post_surgical_Tonal_Audiometry_Pathological_Ear</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D29" t="n">
-        <v>13.73</v>
+        <v>100</v>
       </c>
       <c r="E29" t="n">
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>1.96</v>
+        <v>100</v>
       </c>
       <c r="G29" t="n">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="H29" t="n">
-        <v>11.76</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>Non-significant</t>
+        <v>100</v>
+      </c>
+      <c r="I29" t="n">
+        <v>33</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Significant</t>
         </is>
       </c>
     </row>
@@ -1546,41 +1423,30 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>One_Week_Post_surgical_Tonal_Audiometry_Pathological_Ear</t>
+          <t xml:space="preserve">     Mixed HL</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D30" t="n">
-        <v>100</v>
+        <v>75.76000000000001</v>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>3.03030303030303</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H30" t="n">
-        <v>96.96969696969697</v>
-      </c>
-      <c r="I30" t="n">
-        <v>33</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>Significant</t>
-        </is>
-      </c>
+        <v>78.12</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1588,14 +1454,14 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve">     Mixed HL</t>
+          <t xml:space="preserve">     Sensorial HL</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="D31" t="n">
-        <v>75.76000000000001</v>
+        <v>21.21</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -1604,19 +1470,14 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="H31" t="n">
-        <v>75.76000000000001</v>
+        <v>21.88</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>Significant</t>
-        </is>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1624,35 +1485,30 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve">     Sensorial HL</t>
+          <t xml:space="preserve">     Conductive HL</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>21.21</v>
+        <v>3.03</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G32" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>21.21</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>Significant</t>
-        </is>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1660,33 +1516,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t xml:space="preserve">     Conductive HL</t>
+          <t>Hearing_impairment_One_Week_Post_surgical</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="D33" t="n">
-        <v>3.03</v>
+        <v>100</v>
       </c>
       <c r="E33" t="n">
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>3.03</v>
+        <v>100</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>Significant</t>
+        <v>100</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.3009</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Non-significant</t>
         </is>
       </c>
     </row>
@@ -1696,14 +1555,14 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t xml:space="preserve">     Normal hearing</t>
+          <t xml:space="preserve">     (40-70 dB)</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>63.64</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -1712,19 +1571,14 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>65.62</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>Significant</t>
-        </is>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1732,41 +1586,30 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Hearing_impairment_One_Week_Post_surgical</t>
+          <t xml:space="preserve">     (20-40 dB)</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D35" t="n">
-        <v>100</v>
+        <v>27.27</v>
       </c>
       <c r="E35" t="n">
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>3.03030303030303</v>
+        <v>100</v>
       </c>
       <c r="G35" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="H35" t="n">
-        <v>96.96969696969697</v>
-      </c>
-      <c r="I35" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.4337</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.7470545454545454</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>Non-significant</t>
-        </is>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1774,14 +1617,14 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t xml:space="preserve">     (40-70 dB)</t>
+          <t xml:space="preserve">     (&lt;20 dB)</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
-        <v>63.64</v>
+        <v>9.09</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -1790,19 +1633,14 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="H36" t="n">
-        <v>63.64</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>Non-significant</t>
-        </is>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1810,31 +1648,34 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t xml:space="preserve">     (20-40 dB)</t>
+          <t>One_Month_Post_surgical_Tonal_Audiometry_Pathological_Ear</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D37" t="n">
-        <v>27.27</v>
+        <v>100</v>
       </c>
       <c r="E37" t="n">
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>3.03</v>
+        <v>100</v>
       </c>
       <c r="G37" t="n">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="H37" t="n">
-        <v>24.24</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
+        <v>100</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.7260416666666667</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1</v>
+      </c>
+      <c r="K37" t="inlineStr">
         <is>
           <t>Non-significant</t>
         </is>
@@ -1846,35 +1687,30 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t xml:space="preserve">     (70-90 dB)</t>
+          <t xml:space="preserve">     Sensorial HL</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="D38" t="n">
-        <v>9.09</v>
+        <v>58.54</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G38" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="H38" t="n">
-        <v>9.09</v>
+        <v>57.5</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>Non-significant</t>
-        </is>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1882,14 +1718,14 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t xml:space="preserve">     (&lt;20 dB)</t>
+          <t xml:space="preserve">     Mixed HL</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>36.59</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -1898,19 +1734,14 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>Non-significant</t>
-        </is>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1918,41 +1749,30 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>One_Month_Post_surgical_Tonal_Audiometry_Pathological_Ear</t>
+          <t xml:space="preserve">     Conductive HL</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>100</v>
+        <v>2.44</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>2.439024390243902</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>97.5609756097561</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0.7260416666666667</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.6586</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.7470545454545454</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>Non-significant</t>
-        </is>
-      </c>
+        <v>2.5</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1960,35 +1780,30 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t xml:space="preserve">     Sensorial HL</t>
+          <t xml:space="preserve">     No hearing loss</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>58.54</v>
+        <v>2.44</v>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>2.44</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>56.1</v>
+        <v>2.5</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>Non-significant</t>
-        </is>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1996,31 +1811,34 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t xml:space="preserve">     Mixed HL</t>
+          <t>Hearing_impairment_One_Month_Post_surgical</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="D42" t="n">
-        <v>36.59</v>
+        <v>100</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G42" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H42" t="n">
-        <v>36.59</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
+        <v>100</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.9761904761904762</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1</v>
+      </c>
+      <c r="K42" t="inlineStr">
         <is>
           <t>Non-significant</t>
         </is>
@@ -2032,35 +1850,30 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t xml:space="preserve">     Conductive HL</t>
+          <t xml:space="preserve">     (20-40 dB)</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D43" t="n">
-        <v>2.44</v>
+        <v>51.22</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H43" t="n">
-        <v>2.44</v>
+        <v>50</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>Non-significant</t>
-        </is>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2068,14 +1881,14 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t xml:space="preserve">     No hearing loss</t>
+          <t xml:space="preserve">     (40-70 dB)</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D44" t="n">
-        <v>2.44</v>
+        <v>43.9</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -2084,19 +1897,14 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="H44" t="n">
-        <v>2.44</v>
+        <v>45</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>Non-significant</t>
-        </is>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2104,41 +1912,30 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Hearing_impairment_One_Month_Post_surgical</t>
+          <t xml:space="preserve">     (&lt;20 dB)</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>100</v>
+        <v>2.44</v>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>2.439024390243902</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>97.5609756097561</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0.9761904761904762</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.664</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.7470545454545454</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>Non-significant</t>
-        </is>
-      </c>
+        <v>2.5</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2146,35 +1943,30 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t xml:space="preserve">     (20-40 dB)</t>
+          <t xml:space="preserve">     (70-90 dB)</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>51.22</v>
+        <v>2.44</v>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>2.44</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>48.78</v>
+        <v>2.5</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>Non-significant</t>
-        </is>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2182,31 +1974,34 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t xml:space="preserve">     (40-70 dB)</t>
+          <t>Otosclerosis_Contralateral_Ear</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="D47" t="n">
-        <v>43.9</v>
+        <v>100</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G47" t="n">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="H47" t="n">
-        <v>43.9</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
+        <v>100</v>
+      </c>
+      <c r="I47" t="n">
+        <v>5.84375</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.2976</v>
+      </c>
+      <c r="K47" t="inlineStr">
         <is>
           <t>Non-significant</t>
         </is>
@@ -2218,35 +2013,30 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t xml:space="preserve">     (&lt;20 dB)</t>
+          <t xml:space="preserve">     No</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D48" t="n">
-        <v>2.44</v>
+        <v>35.29</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="H48" t="n">
-        <v>2.44</v>
+        <v>31.25</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>Non-significant</t>
-        </is>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2254,14 +2044,14 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t xml:space="preserve">     (70-90 dB)</t>
+          <t xml:space="preserve">     Surg. + and CT +</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D49" t="n">
-        <v>2.44</v>
+        <v>27.45</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
@@ -2270,19 +2060,14 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H49" t="n">
-        <v>2.44</v>
+        <v>29.17</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>Non-significant</t>
-        </is>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2290,41 +2075,30 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Otosclerosis_Contralateral_Ear</t>
+          <t xml:space="preserve">     Surg. + and CT -</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="D50" t="n">
-        <v>100</v>
+        <v>23.53</v>
       </c>
       <c r="E50" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>5.882352941176471</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="H50" t="n">
-        <v>94.11764705882354</v>
-      </c>
-      <c r="I50" t="n">
-        <v>5.84375</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.4599</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.7470545454545454</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>Non-significant</t>
-        </is>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2332,35 +2106,30 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t xml:space="preserve">     No</t>
+          <t xml:space="preserve">     Med_history + &amp; CT +</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
-        <v>35.29</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="E51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>5.88</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H51" t="n">
-        <v>29.41</v>
+        <v>10.42</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>Non-significant</t>
-        </is>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2368,14 +2137,14 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t xml:space="preserve">     Surg. + and CT +</t>
+          <t xml:space="preserve">     Med_history + &amp; CT +/-</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D52" t="n">
-        <v>27.45</v>
+        <v>1.96</v>
       </c>
       <c r="E52" t="n">
         <v>0</v>
@@ -2384,19 +2153,14 @@
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>27.45</v>
+        <v>2.08</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>Non-significant</t>
-        </is>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2408,10 +2172,10 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>23.53</v>
+        <v>1.96</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
@@ -2420,163 +2184,14 @@
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>23.53</v>
+        <v>2.08</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>Non-significant</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t xml:space="preserve">     Med_history + &amp; CT +</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>5</v>
-      </c>
-      <c r="D54" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0</v>
-      </c>
-      <c r="F54" t="n">
-        <v>0</v>
-      </c>
-      <c r="G54" t="n">
-        <v>5</v>
-      </c>
-      <c r="H54" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>Non-significant</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t xml:space="preserve">     Med_history + &amp; CT +/-</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>1</v>
-      </c>
-      <c r="D55" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="E55" t="n">
-        <v>0</v>
-      </c>
-      <c r="F55" t="n">
-        <v>0</v>
-      </c>
-      <c r="G55" t="n">
-        <v>1</v>
-      </c>
-      <c r="H55" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>Non-significant</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t xml:space="preserve">     Med_history + &amp; CT -</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
-        <v>1</v>
-      </c>
-      <c r="D56" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0</v>
-      </c>
-      <c r="F56" t="n">
-        <v>0</v>
-      </c>
-      <c r="G56" t="n">
-        <v>1</v>
-      </c>
-      <c r="H56" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>Non-significant</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t xml:space="preserve">     Surg. + and CT -</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
-        <v>0</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0</v>
-      </c>
-      <c r="F57" t="n">
-        <v>0</v>
-      </c>
-      <c r="G57" t="n">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>Non-significant</t>
-        </is>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
